--- a/tests/csv_test/malicious_urls_results.xlsx
+++ b/tests/csv_test/malicious_urls_results.xlsx
@@ -5274,7 +5274,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>{'otx': '{"sections": ["general", "url_list", "http_scans", "screenshot"], "indicator": "http://138.68.248.246/loader/settings.json", "type": "url", "type_title": "URL", "validation": [], "base_indicator": {}, "pulse_info": {"count": 0, "pulses": [], "references": [], "related": {"alienvault": {"adversary": [], "malware_families": [], "industries": [], "unique_indicators": 0}, "other": {"adversary": [], "malware_families": [], "industries": [], "unique_indicators": 0}}}, "false_positive": [], "alexa": "", "whois": "http://whois.domaintools.com/138.68.248.246", "domain": "Unavailable", "hostname": "Unavailable"}', 'threatfox': '{\n    "query_status": "no_result",\n    "data": "Your search did not yield any results"\n}', 'urlhaus': '{\n    "query_status": "no_results"\n}'}</t>
+          <t>{'otx': '{"sections": ["general", "url_list", "http_scans", "screenshot"], "indicator": "http://138.68.248.246/loader/settings.json", "type": "url", "type_title": "URL", "validation": [], "base_indicator": {}, "pulse_info": {"count": 0, "pulses": [], "references": [], "related": {"alienvault": {"adversary": [], "malware_families": [], "industries": [], "unique_indicators": 0}, "other": {"adversary": [], "malware_families": [], "industries": [], "unique_indicators": 0}}}, "false_positive": [], "alexa": "", "whois": "http://whois.domaintools.com/138.68.248.246", "domain": "Unavailable", "hostname": "Unavailable"}', 'threatfox': '\n&lt;html&gt;&lt;head&gt;\n&lt;meta http-equiv="content-type" content="text/html;charset=utf-8"&gt;\n&lt;title&gt;502 Server Error&lt;/title&gt;\n&lt;/head&gt;\n&lt;body text=#000000 bgcolor=#ffffff&gt;\n&lt;h1&gt;Error: Server Error&lt;/h1&gt;\n&lt;h2&gt;The server encountered a temporary error and could not complete your request.&lt;p&gt;Please try again in 30 seconds.&lt;/h2&gt;\n&lt;h2&gt;&lt;/h2&gt;\n&lt;/body&gt;&lt;/html&gt;\n', 'urlhaus': '{\n    "query_status": "no_results"\n}'}</t>
         </is>
       </c>
     </row>
